--- a/biology/Zoologie/Hydrophis_inornatus/Hydrophis_inornatus.xlsx
+++ b/biology/Zoologie/Hydrophis_inornatus/Hydrophis_inornatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hydrophis inornatus ou Hydrophide gris bleu est une espèce de serpents marins de la famille des Elapidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hydrophis inornatus ou Hydrophide gris bleu est une espèce de serpents marins de la famille des Elapidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'océan Indien et l'océan Pacifique occidental dans les eaux de la Chine, des Philippines, de l'Indonésie, de l'Australie et du Sri Lanka[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'océan Indien et l'océan Pacifique occidental dans les eaux de la Chine, des Philippines, de l'Indonésie, de l'Australie et du Sri Lanka. 
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hydrophide gris bleu est un petit serpent de mer mesurant environ 70 cm. Le dessus de son corps est gris bleuté, ses flancs et son ventre sont blancs. Il a 60-65 bandes sombres.
 Il se nourrit de petits poissons et de leurs œufs qu'il trouve dans les fonds meubles. 
-On peut le confondre avec Hydrophis lamberti et Hydrophis ornatus[2].
+On peut le confondre avec Hydrophis lamberti et Hydrophis ornatus.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1849 : Catalogue of the specimens of snakes in the collection of the British Museum, London, p. 1-125 (texte intégral).</t>
         </is>
